--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T04:28:30+00:00</t>
+    <t>2025-10-06T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/RunReportBundle</t>
+    <t>https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/RunReportBundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-06T14:14:26+00:00</t>
+    <t>2025-10-07T08:34:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1082,7 +1082,7 @@
     <t>Bundle.entry:CompositionRun.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/CompositionRunReport}
+    <t xml:space="preserve">Composition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/CompositionRunReport}
 </t>
   </si>
   <si>
@@ -1307,7 +1307,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Encounter {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/EncounterTransportRunReport}
+    <t xml:space="preserve">Encounter {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/EncounterTransportRunReport}
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>Bundle.entry:LocationIncidentEntry.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Location {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/LocationIncident}
+    <t xml:space="preserve">Location {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/LocationIncident}
 </t>
   </si>
   <si>
@@ -1535,7 +1535,7 @@
 MeasurementResultsTests</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationTriageCategory}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationTriageCategory}
 </t>
   </si>
   <si>
@@ -1653,7 +1653,7 @@
     <t>Bundle.entry:HeartRate.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationHeartRate}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationHeartRate}
 </t>
   </si>
   <si>
@@ -1756,7 +1756,7 @@
     <t>Bundle.entry:BloodPressure.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationBloodPressure}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationBloodPressure}
 </t>
   </si>
   <si>
@@ -1859,7 +1859,7 @@
     <t>Bundle.entry:ExtentOfInjury.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationExtentOfInjury}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationExtentOfInjury}
 </t>
   </si>
   <si>
@@ -1962,7 +1962,7 @@
     <t>Bundle.entry:VehiclesInvolved.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationVehiclesInvolved}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationVehiclesInvolved}
 </t>
   </si>
   <si>
@@ -2065,7 +2065,7 @@
     <t>Bundle.entry:PatientsInvolved.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationPatientsInvolved}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationPatientsInvolved}
 </t>
   </si>
   <si>
@@ -2168,7 +2168,7 @@
     <t>Bundle.entry:CollisionType.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationCollisionType}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationCollisionType}
 </t>
   </si>
   <si>
@@ -2271,7 +2271,7 @@
     <t>Bundle.entry:CCTVAvailable.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ObservationCCTVAvailable}
+    <t xml:space="preserve">Observation {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ObservationCCTVAvailable}
 </t>
   </si>
   <si>
@@ -2374,7 +2374,7 @@
     <t>Bundle.entry:Problem.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/ConditionProblem}
+    <t xml:space="preserve">Condition {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/ConditionProblem}
 </t>
   </si>
   <si>
@@ -2489,7 +2489,7 @@
     <t>Bundle.entry:DocumentRunForm.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceOneissRunForm}
+    <t xml:space="preserve">DocumentReference {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/DocumentReferenceOneissRunForm}
 </t>
   </si>
   <si>
@@ -2607,7 +2607,7 @@
     <t>Bundle.entry:DelayTask.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Task {https://build.fhir.org/ig/UP-Manila-SILab/PH-RoadSafetyIG/StructureDefinition/TaskDelayReporting}
+    <t xml:space="preserve">Task {https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/TaskDelayReporting}
 </t>
   </si>
   <si>
@@ -3043,7 +3043,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="109.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.75390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T08:34:02+00:00</t>
+    <t>2025-10-07T09:19:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:19:43+00:00</t>
+    <t>2025-10-07T09:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T09:49:39+00:00</t>
+    <t>2025-10-07T15:24:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T15:24:26+00:00</t>
+    <t>2025-10-08T01:21:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:21:21+00:00</t>
+    <t>2025-10-08T01:44:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T01:44:50+00:00</t>
+    <t>2025-10-08T02:57:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T02:57:10+00:00</t>
+    <t>2025-10-09T04:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T04:26:27+00:00</t>
+    <t>2025-10-09T07:33:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:33:25+00:00</t>
+    <t>2025-10-09T07:37:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-RunReportBundle.xlsx
+++ b/StructureDefinition-RunReportBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-09T07:37:26+00:00</t>
+    <t>2025-10-09T08:41:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
